--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -72,10 +72,13 @@
     <t>C</t>
   </si>
   <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>确定</t>
   </si>
   <si>
-    <t>[1,2,[11,22]]</t>
+    <t>[1,2,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,13,'ted','walk']}</t>
@@ -171,8 +174,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -198,6 +201,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -205,49 +231,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,46 +302,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,16 +562,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,17 +591,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,37 +644,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -675,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1172,7 +1175,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1270,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1278,13 +1281,13 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1292,13 +1295,13 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1306,13 +1309,13 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1320,13 +1323,13 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1334,13 +1337,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1348,13 +1351,13 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1362,13 +1365,13 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1376,13 +1379,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1390,13 +1393,13 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1404,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1433,7 +1436,7 @@
   <sheetData>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
     <t>确定</t>
   </si>
   <si>
-    <t>[1,2,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
+    <t>[1,2,0,100,0,1,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,13,'ted','walk']}</t>
@@ -87,7 +87,7 @@
     <t>取消</t>
   </si>
   <si>
-    <t>[1,2,[11,23]]</t>
+    <t>["你好",“中国”,"china"]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,14,'ted','walk']}</t>
@@ -96,7 +96,7 @@
     <t>激活</t>
   </si>
   <si>
-    <t>[1,2,[11,24]]</t>
+    <t>[1,2,[11,24],'future',['abc','name',"世界之大"]]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,15,'ted','walk']}</t>
@@ -195,77 +195,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,26 +293,18 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,23 +316,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,19 +352,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,7 +454,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,37 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,109 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,21 +562,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -587,26 +572,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,6 +623,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -669,7 +669,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -78,7 +78,7 @@
     <t>确定</t>
   </si>
   <si>
-    <t>[1,2,0,100,0,1,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
+    <t>[1,2.23,0,100.789,0,1,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,13,'ted','walk']}</t>
@@ -87,7 +87,7 @@
     <t>取消</t>
   </si>
   <si>
-    <t>["你好",“中国”,"china"]</t>
+    <t>["你好","中国","china"]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,14,'ted','walk']}</t>
@@ -96,7 +96,7 @@
     <t>激活</t>
   </si>
   <si>
-    <t>[1,2,[11,24],'future',['abc','name',"世界之大"]]</t>
+    <t>[1,2,[11,24],'future',['abc','name','世界之大']]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,15,'ted','walk']}</t>
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -188,6 +188,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -195,12 +209,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -208,8 +237,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,40 +253,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -268,19 +277,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,31 +303,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +352,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,169 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +576,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -593,8 +617,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -624,32 +650,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,14 +1175,14 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="6.43333333333333" customWidth="1"/>
     <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="3" width="7.43333333333333" customWidth="1"/>
+    <col min="3" max="3" width="34.6833333333333" customWidth="1"/>
     <col min="4" max="4" width="25.1833333333333" customWidth="1"/>
     <col min="5" max="5" width="8.55833333333333" customWidth="1"/>
   </cols>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -105,7 +105,7 @@
     <t>未激活</t>
   </si>
   <si>
-    <t>[1,2,[11,25]]</t>
+    <t>["海阔天空","鱼跃鸟飞","提升自我"]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,16,'ted','walk']}</t>
@@ -114,7 +114,7 @@
     <t>已激活</t>
   </si>
   <si>
-    <t>[1,2,[11,26]]</t>
+    <t>["Everything is Ok","Nothing is impossible"]</t>
   </si>
   <si>
     <t>{name:'jim',age:22,work:[12,17,'ted','walk']}</t>
@@ -173,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -195,6 +195,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -202,21 +232,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,69 +300,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -301,6 +308,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -311,21 +325,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,13 +352,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,169 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +562,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -572,30 +602,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,11 +623,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,26 +648,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>[1,2.23,0,100.789,0,1,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,13,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,13,"ted","walk"]}</t>
   </si>
   <si>
     <t>取消</t>
@@ -90,7 +90,7 @@
     <t>["你好","中国","china"]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,14,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,14,"ted","walk"]}</t>
   </si>
   <si>
     <t>激活</t>
@@ -99,7 +99,7 @@
     <t>[1,2,[11,24],'future',['abc','name','世界之大']]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,15,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,15,"ted","walk"]}</t>
   </si>
   <si>
     <t>未激活</t>
@@ -108,7 +108,7 @@
     <t>["海阔天空","鱼跃鸟飞","提升自我"]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,16,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,16,"ted","walk"]}</t>
   </si>
   <si>
     <t>已激活</t>
@@ -117,7 +117,7 @@
     <t>["Everything is Ok","Nothing is impossible"]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,17,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,17,"ted","walk"]}</t>
   </si>
   <si>
     <t>可激活</t>
@@ -126,7 +126,7 @@
     <t>[1,2,[11,27]]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,18,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,18,"ted","walk"]}</t>
   </si>
   <si>
     <t>已领取</t>
@@ -135,7 +135,7 @@
     <t>[1,2,[11,28]]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,19,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,19,"ted","walk"]}</t>
   </si>
   <si>
     <t>领取</t>
@@ -144,7 +144,7 @@
     <t>[1,2,[11,29]]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,20,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,20,"ted","walk"]}</t>
   </si>
   <si>
     <t>充值任意金额即可领取</t>
@@ -153,7 +153,7 @@
     <t>[1,2,[11,30]]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,21,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,21,"ted","walk"]}</t>
   </si>
   <si>
     <t>第%s天激活任务</t>
@@ -162,7 +162,7 @@
     <t>[1,2,[11,31]]</t>
   </si>
   <si>
-    <t>{name:'jim',age:22,work:[12,22,'ted','walk']}</t>
+    <t>{"name":"jim","age":22,"work":[12,22,"ted","walk"]}</t>
   </si>
   <si>
     <t>asdf</t>
@@ -187,6 +187,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -194,23 +218,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,53 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,48 +309,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +352,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,17 +576,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,6 +616,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,36 +654,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +678,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -173,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -187,32 +187,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,45 +270,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,29 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -316,14 +316,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -352,25 +352,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,37 +466,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,13 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,73 +532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,51 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,15 +632,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -605,47 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,10 +666,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,34 +678,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,97 +714,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="语言包" sheetId="1" r:id="rId1"/>
+    <sheet name="多key测试" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -165,7 +165,214 @@
     <t>{"name":"jim","age":22,"work":[12,22,"ted","walk"]}</t>
   </si>
   <si>
-    <t>asdf</t>
+    <t>LangConfig2.lua</t>
+  </si>
+  <si>
+    <t>LangConfig2.json</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>key=1,type=1</t>
+  </si>
+  <si>
+    <t>key=1,type=2</t>
+  </si>
+  <si>
+    <t>key=1,type=3</t>
+  </si>
+  <si>
+    <t>key=1,type=4</t>
+  </si>
+  <si>
+    <t>key=1,type=5</t>
+  </si>
+  <si>
+    <t>key=1,type=6</t>
+  </si>
+  <si>
+    <t>key=1,type=7</t>
+  </si>
+  <si>
+    <t>key=1,type=8</t>
+  </si>
+  <si>
+    <t>key=1,type=9</t>
+  </si>
+  <si>
+    <t>key=1,type=10</t>
+  </si>
+  <si>
+    <t>key=1,type=11</t>
+  </si>
+  <si>
+    <t>key=1,type=12</t>
+  </si>
+  <si>
+    <t>key=1,type=13</t>
+  </si>
+  <si>
+    <t>key=1,type=14</t>
+  </si>
+  <si>
+    <t>key=1,type=15</t>
+  </si>
+  <si>
+    <t>key=1,type=16</t>
+  </si>
+  <si>
+    <t>key=1,type=17</t>
+  </si>
+  <si>
+    <t>key=1,type=18</t>
+  </si>
+  <si>
+    <t>key=1,type=19</t>
+  </si>
+  <si>
+    <t>key=1,type=20</t>
+  </si>
+  <si>
+    <t>key=1,type=21</t>
+  </si>
+  <si>
+    <t>key=1,type=22</t>
+  </si>
+  <si>
+    <t>key=1,type=23</t>
+  </si>
+  <si>
+    <t>key=1,type=24</t>
+  </si>
+  <si>
+    <t>key=1,type=25</t>
+  </si>
+  <si>
+    <t>key=1,type=26</t>
+  </si>
+  <si>
+    <t>key=1,type=27</t>
+  </si>
+  <si>
+    <t>key=2,type=1</t>
+  </si>
+  <si>
+    <t>key=2,type=2</t>
+  </si>
+  <si>
+    <t>key=2,type=3</t>
+  </si>
+  <si>
+    <t>key=2,type=4</t>
+  </si>
+  <si>
+    <t>key=2,type=5</t>
+  </si>
+  <si>
+    <t>key=2,type=6</t>
+  </si>
+  <si>
+    <t>key=2,type=7</t>
+  </si>
+  <si>
+    <t>key=2,type=8</t>
+  </si>
+  <si>
+    <t>key=2,type=9</t>
+  </si>
+  <si>
+    <t>key=2,type=10</t>
+  </si>
+  <si>
+    <t>key=2,type=11</t>
+  </si>
+  <si>
+    <t>key=2,type=12</t>
+  </si>
+  <si>
+    <t>key=2,type=13</t>
+  </si>
+  <si>
+    <t>key=2,type=14</t>
+  </si>
+  <si>
+    <t>key=2,type=15</t>
+  </si>
+  <si>
+    <t>key=2,type=16</t>
+  </si>
+  <si>
+    <t>key=2,type=17</t>
+  </si>
+  <si>
+    <t>key=2,type=18</t>
+  </si>
+  <si>
+    <t>key=2,type=19</t>
+  </si>
+  <si>
+    <t>key=2,type=20</t>
+  </si>
+  <si>
+    <t>key=2,type=21</t>
+  </si>
+  <si>
+    <t>key=2,type=22</t>
+  </si>
+  <si>
+    <t>key=2,type=23</t>
+  </si>
+  <si>
+    <t>key=2,type=24</t>
+  </si>
+  <si>
+    <t>key=2,type=25</t>
+  </si>
+  <si>
+    <t>key=2,type=26</t>
+  </si>
+  <si>
+    <t>key=2,type=27</t>
+  </si>
+  <si>
+    <t>key=3,type=1</t>
+  </si>
+  <si>
+    <t>key=3,type=2</t>
+  </si>
+  <si>
+    <t>key=3,type=3</t>
+  </si>
+  <si>
+    <t>key=3,type=4</t>
+  </si>
+  <si>
+    <t>key=3,type=5</t>
+  </si>
+  <si>
+    <t>key=3,type=6</t>
+  </si>
+  <si>
+    <t>key=3,type=7</t>
+  </si>
+  <si>
+    <t>key=3,type=8</t>
+  </si>
+  <si>
+    <t>key=3,type=9</t>
   </si>
 </sst>
 </file>
@@ -173,10 +380,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -187,8 +394,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +418,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +449,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,84 +464,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,7 +479,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,187 +559,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +764,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,26 +846,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,24 +865,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -666,10 +873,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,133 +885,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -812,17 +1019,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1175,7 +1382,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1188,91 +1395,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1426,17 +1633,781 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B12"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:C70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="语言包" sheetId="1" r:id="rId1"/>
     <sheet name="多key测试" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="多key测试2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -373,6 +373,138 @@
   </si>
   <si>
     <t>key=3,type=9</t>
+  </si>
+  <si>
+    <t>LangConfig3.lua</t>
+  </si>
+  <si>
+    <t>LangConfig3.json</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>key4</t>
+  </si>
+  <si>
+    <t>key5</t>
+  </si>
+  <si>
+    <t>type3</t>
+  </si>
+  <si>
+    <t>type4</t>
+  </si>
+  <si>
+    <t>type5</t>
+  </si>
+  <si>
+    <t>xxxx1111</t>
+  </si>
+  <si>
+    <t>xxxx1112</t>
+  </si>
+  <si>
+    <t>xxxx1113</t>
+  </si>
+  <si>
+    <t>xxxx1114</t>
+  </si>
+  <si>
+    <t>xxxx1115</t>
+  </si>
+  <si>
+    <t>xxxx1116</t>
+  </si>
+  <si>
+    <t>xxxx1117</t>
+  </si>
+  <si>
+    <t>xxxx1118</t>
+  </si>
+  <si>
+    <t>xxxx1119</t>
+  </si>
+  <si>
+    <t>xxxx1120</t>
+  </si>
+  <si>
+    <t>xxxx1121</t>
+  </si>
+  <si>
+    <t>xxxx1122</t>
+  </si>
+  <si>
+    <t>yyyy2221</t>
+  </si>
+  <si>
+    <t>yyyy2222</t>
+  </si>
+  <si>
+    <t>yyyy2223</t>
+  </si>
+  <si>
+    <t>yyyy2224</t>
+  </si>
+  <si>
+    <t>yyyy2225</t>
+  </si>
+  <si>
+    <t>yyyy2226</t>
+  </si>
+  <si>
+    <t>yyyy2227</t>
+  </si>
+  <si>
+    <t>yyyy2228</t>
+  </si>
+  <si>
+    <t>yyyy2229</t>
+  </si>
+  <si>
+    <t>yyyy2230</t>
+  </si>
+  <si>
+    <t>yyyy2231</t>
+  </si>
+  <si>
+    <t>yyyy2232</t>
+  </si>
+  <si>
+    <t>yyyy2233</t>
+  </si>
+  <si>
+    <t>yyyy2234</t>
+  </si>
+  <si>
+    <t>yyyy2235</t>
+  </si>
+  <si>
+    <t>yyyy2236</t>
+  </si>
+  <si>
+    <t>yyyy2237</t>
+  </si>
+  <si>
+    <t>yyyy2238</t>
+  </si>
+  <si>
+    <t>yyyy2239</t>
+  </si>
+  <si>
+    <t>yyyy2240</t>
+  </si>
+  <si>
+    <t>yyyy2241</t>
+  </si>
+  <si>
+    <t>yyyy2242</t>
+  </si>
+  <si>
+    <t>yyyy2243</t>
+  </si>
+  <si>
+    <t>yyyy2244</t>
   </si>
 </sst>
 </file>
@@ -381,9 +513,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -394,9 +526,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,6 +578,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -416,11 +586,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,23 +633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,21 +648,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -493,46 +656,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,13 +691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,7 +709,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,37 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,109 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,6 +896,47 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,36 +974,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -854,17 +997,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -873,10 +1005,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,19 +1017,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,112 +1038,112 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1381,8 +1513,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1635,8 +1767,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:C70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2420,14 +2552,1084 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="语言包" sheetId="1" r:id="rId1"/>
     <sheet name="多key测试" sheetId="2" r:id="rId2"/>
     <sheet name="多key测试2" sheetId="3" r:id="rId3"/>
+    <sheet name="#_以#开头的表示不导出" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -512,10 +513,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -526,27 +527,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -565,22 +549,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,6 +558,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,8 +594,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,10 +642,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,31 +664,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -691,7 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +722,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,55 +824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,43 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,43 +866,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,59 +918,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,8 +943,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,10 +1006,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1017,133 +1018,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2554,12 +2555,17 @@
   <sheetPr/>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3634,4 +3640,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -506,6 +506,36 @@
   </si>
   <si>
     <t>yyyy2244</t>
+  </si>
+  <si>
+    <t>这两行的格式只能如此，不可随意插入列或行</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>要多少列数据就配置多少列</t>
+  </si>
+  <si>
+    <t>这几行后面不能有非导出数据</t>
+  </si>
+  <si>
+    <t>你好xxx</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>下面这些行后面随意添加非导出数据的说明</t>
+  </si>
+  <si>
+    <t>["a","b","c"]</t>
+  </si>
+  <si>
+    <t>[[1,2],[2,3],["aaa","bbb"]]</t>
+  </si>
+  <si>
+    <t>[1,2,[12,13,"aaa"],"abac","eds"]</t>
   </si>
 </sst>
 </file>
@@ -513,8 +543,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -528,6 +558,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -535,14 +604,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,14 +626,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,16 +655,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,57 +679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +722,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,7 +776,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,127 +878,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,31 +890,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,50 +931,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -966,6 +957,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -973,13 +999,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1006,10 +1036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,142 +1048,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1515,7 +1548,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1553,66 +1586,66 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+    <row r="3" s="4" customFormat="1" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1807,46 +1840,46 @@
       <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2596,82 +2629,82 @@
       <c r="E2" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3645,14 +3678,184 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="28.5583333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.6833333333333" customWidth="1"/>
+    <col min="7" max="7" width="21.0583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -544,9 +544,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -554,52 +554,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -612,6 +566,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,22 +602,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,16 +616,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -687,6 +655,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -695,7 +679,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,7 +722,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +788,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,79 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,43 +836,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,13 +872,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,7 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,11 +931,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,22 +991,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,7 +1000,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1013,21 +1028,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1036,10 +1036,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,133 +1048,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1256,6 +1256,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="3943350"/>
+          <a:ext cx="5638165" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3681,7 +3728,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3858,5 +3905,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="11940" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="语言包" sheetId="1" r:id="rId1"/>
     <sheet name="多key测试" sheetId="2" r:id="rId2"/>
     <sheet name="多key测试2" sheetId="3" r:id="rId3"/>
-    <sheet name="#_以#开头的表示不导出" sheetId="4" r:id="rId4"/>
+    <sheet name="参数表" sheetId="5" r:id="rId4"/>
+    <sheet name="#_以#开头的表示不导出" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="190">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -506,6 +507,57 @@
   </si>
   <si>
     <t>yyyy2244</t>
+  </si>
+  <si>
+    <t>ParamConfig.lua</t>
+  </si>
+  <si>
+    <t>ParamConfig.json</t>
+  </si>
+  <si>
+    <t>特殊格式（1表示竖状）</t>
+  </si>
+  <si>
+    <t>参数名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>导出格式</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>outputType</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>open_time</t>
+  </si>
+  <si>
+    <t>2021_12_10</t>
+  </si>
+  <si>
+    <t>maxLevel</t>
+  </si>
+  <si>
+    <t>open_condition</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123654,"city":"gd"}</t>
   </si>
   <si>
     <t>这两行的格式只能如此，不可随意插入列或行</t>
@@ -543,10 +595,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -572,14 +624,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,14 +632,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,6 +646,59 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -616,16 +706,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,63 +746,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,13 +774,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,67 +912,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -812,55 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,37 +948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,6 +984,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -946,17 +1013,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,38 +1048,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,6 +1069,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1036,10 +1088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1048,137 +1100,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,6 +1242,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1595,7 +1656,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1633,12 +1694,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+    <row r="3" s="7" customFormat="1" spans="1:5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
@@ -2636,7 +2697,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3725,10 +3786,176 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3755,7 +3982,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3766,10 +3993,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3777,7 +4006,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -3786,10 +4015,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3806,7 +4035,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3823,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3840,7 +4069,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3848,16 +4077,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3865,10 +4094,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -3879,10 +4108,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -3893,10 +4122,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="语言包" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="193">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -560,6 +560,12 @@
     <t>{"name":"root","password":123654,"city":"gd"}</t>
   </si>
   <si>
+    <t>strArr</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
     <t>这两行的格式只能如此，不可随意插入列或行</t>
   </si>
   <si>
@@ -588,6 +594,9 @@
   </si>
   <si>
     <t>[1,2,[12,13,"aaa"],"abac","eds"]</t>
+  </si>
+  <si>
+    <t>竖状导出格式，前面3列固定</t>
   </si>
 </sst>
 </file>
@@ -1324,15 +1333,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>948055</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1349,7 +1358,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="323850" y="3943350"/>
+          <a:off x="153035" y="4543425"/>
           <a:ext cx="5638165" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1656,7 +1665,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3786,10 +3795,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3943,6 +3952,34 @@
         <v>179</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3952,10 +3989,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3982,7 +4019,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3998,7 +4035,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4006,7 +4043,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4015,10 +4052,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4035,7 +4072,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4052,7 +4089,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4069,7 +4106,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4077,16 +4114,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4094,10 +4131,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -4108,10 +4145,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -4122,13 +4159,72 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -3797,8 +3797,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="语言包" sheetId="1" r:id="rId1"/>
+    <sheet name="#语言包" sheetId="1" r:id="rId1"/>
     <sheet name="多key测试" sheetId="2" r:id="rId2"/>
-    <sheet name="多key测试2" sheetId="3" r:id="rId3"/>
-    <sheet name="参数表" sheetId="5" r:id="rId4"/>
-    <sheet name="#_以#开头的表示不导出" sheetId="4" r:id="rId5"/>
+    <sheet name="#多key测试2" sheetId="3" r:id="rId3"/>
+    <sheet name="#参数表" sheetId="5" r:id="rId4"/>
+    <sheet name="#以#开头的表示不导出" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="193">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -596,7 +596,7 @@
     <t>[1,2,[12,13,"aaa"],"abac","eds"]</t>
   </si>
   <si>
-    <t>竖状导出格式，前面3列固定</t>
+    <t>竖状导出格式，固定4列</t>
   </si>
 </sst>
 </file>
@@ -604,10 +604,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -626,14 +626,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -648,7 +649,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,37 +680,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -712,6 +698,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,7 +727,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -741,22 +742,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,25 +783,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,31 +807,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,25 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,13 +843,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,7 +873,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,19 +921,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,7 +957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,35 +1007,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,16 +1057,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1081,11 +1083,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,10 +1097,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1112,13 +1112,13 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1130,116 +1130,116 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1253,9 +1253,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1332,20 +1329,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>153035</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>948055</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>212725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1358,8 +1355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="153035" y="4543425"/>
-          <a:ext cx="5638165" cy="1533525"/>
+          <a:off x="6017260" y="1514475"/>
+          <a:ext cx="2295525" cy="6467475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1703,12 +1700,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:5">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+    <row r="3" s="6" customFormat="1" spans="1:5">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
@@ -1918,8 +1915,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3797,8 +3794,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3934,7 +3931,7 @@
       <c r="C10" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3948,7 +3945,7 @@
       <c r="C11" t="s">
         <v>172</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3989,10 +3986,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E8" sqref="E8:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -4071,6 +4068,9 @@
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="E5" t="s">
+        <v>184</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>185</v>
       </c>
@@ -4088,6 +4088,9 @@
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>185</v>
       </c>
@@ -4105,6 +4108,9 @@
       <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E7" t="s">
+        <v>184</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>185</v>
       </c>
@@ -4168,62 +4174,62 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>172</v>
       </c>
     </row>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#语言包" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="318">
   <si>
     <t>服务端配置名</t>
   </si>
@@ -182,6 +182,12 @@
     <t>desc</t>
   </si>
   <si>
+    <t>ary</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -191,192 +197,570 @@
     <t>key=1,type=1</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123654,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=2</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,7]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123655,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=3</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,8]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123656,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=4</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,9]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123657,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=5</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,10]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123658,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=6</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,11]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123659,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=7</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,12]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123660,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=8</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,13]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123661,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=9</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,14]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123662,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=10</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,15]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123663,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=11</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,16]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123664,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=12</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,17]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123665,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=13</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,18]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123666,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=14</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,19]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123667,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=15</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,20]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123668,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=16</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,21]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123669,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=17</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,22]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123670,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=18</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,23]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123671,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=19</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,24]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123672,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=20</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,25]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123673,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=21</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,26]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123674,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=22</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,27]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123675,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=23</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,28]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123676,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=24</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,29]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123677,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=25</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,30]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123678,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=26</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,31]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123679,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=1,type=27</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,32]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123680,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=1</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,33]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123681,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=2</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,34]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123682,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=3</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,35]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123683,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=4</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,36]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123684,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=5</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,37]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123685,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=6</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,38]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123686,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=7</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,39]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123687,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=8</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,40]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123688,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=9</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,41]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123689,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=10</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,42]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123690,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=11</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,43]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123691,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=12</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,44]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123692,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=13</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,45]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123693,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=14</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,46]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123694,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=15</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,47]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123695,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=16</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,48]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123696,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=17</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,49]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123697,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=18</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,50]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123698,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=19</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,51]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123699,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=20</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,52]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123700,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=21</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,53]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123701,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=22</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,54]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123702,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=23</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,55]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123703,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=24</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,56]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123704,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=25</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,57]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123705,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=26</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,58]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123706,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=2,type=27</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,59]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123707,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=1</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,60]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123708,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=2</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,61]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123709,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=3</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,62]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123710,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=4</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,63]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123711,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=5</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,64]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123712,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=6</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,65]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123713,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=7</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,66]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123714,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=8</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,67]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123715,"city":"gd"}</t>
+  </si>
+  <si>
     <t>key=3,type=9</t>
   </si>
   <si>
+    <t>[0,1,2,3,4,5,68]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123716,"city":"gd"}</t>
+  </si>
+  <si>
     <t>LangConfig3.lua</t>
   </si>
   <si>
@@ -551,19 +935,10 @@
     <t>open_condition</t>
   </si>
   <si>
-    <t>[0,1,2,3,4,5,6]</t>
-  </si>
-  <si>
     <t>root</t>
   </si>
   <si>
-    <t>{"name":"root","password":123654,"city":"gd"}</t>
-  </si>
-  <si>
     <t>strArr</t>
-  </si>
-  <si>
-    <t>obj</t>
   </si>
   <si>
     <t>这两行的格式只能如此，不可随意插入列或行</t>
@@ -604,10 +979,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -619,7 +994,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -634,7 +1024,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -642,6 +1047,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,13 +1068,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -670,26 +1076,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -710,10 +1115,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -725,38 +1130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,7 +1158,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,19 +1236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,7 +1260,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,61 +1308,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,67 +1338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,6 +1368,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1009,11 +1399,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1439,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -1059,33 +1456,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,145 +1472,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1915,8 +2290,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1953,7 +2328,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -1963,19 +2338,31 @@
       <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1985,8 +2372,14 @@
       <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1996,8 +2389,14 @@
       <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2005,10 +2404,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2016,10 +2421,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2027,10 +2438,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2038,10 +2455,16 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2049,10 +2472,16 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2060,10 +2489,16 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2071,10 +2506,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2082,10 +2523,16 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2093,10 +2540,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2104,10 +2557,16 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2115,10 +2574,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2126,10 +2591,16 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2137,10 +2608,16 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>94</v>
+      </c>
+      <c r="D20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2148,10 +2625,16 @@
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2159,10 +2642,16 @@
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2170,10 +2659,16 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2181,10 +2676,16 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2192,10 +2693,16 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>109</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2203,10 +2710,16 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>112</v>
+      </c>
+      <c r="D26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2214,10 +2727,16 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2225,10 +2744,16 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2236,10 +2761,16 @@
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2247,10 +2778,16 @@
         <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2258,10 +2795,16 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>127</v>
+      </c>
+      <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2269,10 +2812,16 @@
         <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2280,10 +2829,16 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2291,10 +2846,16 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2302,10 +2863,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2313,10 +2880,16 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2324,10 +2897,16 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2335,10 +2914,16 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>148</v>
+      </c>
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2346,10 +2931,16 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>151</v>
+      </c>
+      <c r="D39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2357,10 +2948,16 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>154</v>
+      </c>
+      <c r="D40" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2368,10 +2965,16 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2379,10 +2982,16 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>160</v>
+      </c>
+      <c r="D42" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>2</v>
       </c>
@@ -2390,10 +2999,16 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>163</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2401,10 +3016,16 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2412,10 +3033,16 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>2</v>
       </c>
@@ -2423,10 +3050,16 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>172</v>
+      </c>
+      <c r="D46" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2434,10 +3067,16 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>175</v>
+      </c>
+      <c r="D47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>2</v>
       </c>
@@ -2445,10 +3084,16 @@
         <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>2</v>
       </c>
@@ -2456,10 +3101,16 @@
         <v>15</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>181</v>
+      </c>
+      <c r="D49" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>2</v>
       </c>
@@ -2467,10 +3118,16 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>184</v>
+      </c>
+      <c r="D50" t="s">
+        <v>185</v>
+      </c>
+      <c r="E50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2478,10 +3135,16 @@
         <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52">
         <v>2</v>
       </c>
@@ -2489,10 +3152,16 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>190</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2500,10 +3169,16 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>193</v>
+      </c>
+      <c r="D53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2511,10 +3186,16 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>196</v>
+      </c>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2522,10 +3203,16 @@
         <v>21</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>199</v>
+      </c>
+      <c r="D55" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2533,10 +3220,16 @@
         <v>22</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>202</v>
+      </c>
+      <c r="D56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2544,10 +3237,16 @@
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2555,10 +3254,16 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>208</v>
+      </c>
+      <c r="D58" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2566,10 +3271,16 @@
         <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>211</v>
+      </c>
+      <c r="D59" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2577,10 +3288,16 @@
         <v>26</v>
       </c>
       <c r="C60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>214</v>
+      </c>
+      <c r="D60" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2588,10 +3305,16 @@
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2599,10 +3322,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>221</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2610,10 +3339,16 @@
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>223</v>
+      </c>
+      <c r="D63" t="s">
+        <v>224</v>
+      </c>
+      <c r="E63" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2621,10 +3356,16 @@
         <v>3</v>
       </c>
       <c r="C64" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>226</v>
+      </c>
+      <c r="D64" t="s">
+        <v>227</v>
+      </c>
+      <c r="E64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2632,10 +3373,16 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>229</v>
+      </c>
+      <c r="D65" t="s">
+        <v>230</v>
+      </c>
+      <c r="E65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2643,10 +3390,16 @@
         <v>5</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>233</v>
+      </c>
+      <c r="E66" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2654,10 +3407,16 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>235</v>
+      </c>
+      <c r="D67" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2665,10 +3424,16 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2676,10 +3441,16 @@
         <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>241</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
+      </c>
+      <c r="E69" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2687,7 +3458,13 @@
         <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>244</v>
+      </c>
+      <c r="D70" t="s">
+        <v>245</v>
+      </c>
+      <c r="E70" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2721,14 +3498,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2750,13 +3527,13 @@
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>250</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>123</v>
+        <v>251</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>53</v>
@@ -2764,19 +3541,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>125</v>
+        <v>253</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>126</v>
+        <v>254</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>53</v>
@@ -2839,7 +3616,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2859,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2879,7 +3656,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2899,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2919,7 +3696,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2939,7 +3716,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2959,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2979,7 +3756,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2999,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3019,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3039,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3059,7 +3836,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3079,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3099,7 +3876,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3119,7 +3896,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3139,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3159,7 +3936,7 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3179,7 +3956,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3199,7 +3976,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3219,7 +3996,7 @@
         <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3239,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3259,7 +4036,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3279,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3299,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3319,7 +4096,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3339,7 +4116,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3359,7 +4136,7 @@
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3379,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3399,7 +4176,7 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3419,7 +4196,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3439,7 +4216,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3459,7 +4236,7 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3479,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3499,7 +4276,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3519,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>149</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3539,7 +4316,7 @@
         <v>3</v>
       </c>
       <c r="F43" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3559,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3579,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3599,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>153</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3619,7 +4396,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3639,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3659,7 +4436,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>156</v>
+        <v>284</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3679,7 +4456,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3699,7 +4476,7 @@
         <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>158</v>
+        <v>286</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3719,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3739,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3759,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3779,7 +4556,7 @@
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +4572,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3812,14 +4589,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>291</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3831,7 +4608,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -3839,27 +4616,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -3881,21 +4658,21 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -3904,18 +4681,18 @@
         <v>17</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>174</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="D9" s="5">
         <v>999</v>
@@ -3923,35 +4700,35 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -3965,7 +4742,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -4016,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>182</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4028,19 +4805,19 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>165</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>182</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4049,15 +4826,15 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -4069,10 +4846,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4089,10 +4866,10 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4109,10 +4886,10 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>309</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4120,16 +4897,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>312</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>188</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4137,10 +4914,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -4151,10 +4928,10 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
@@ -4165,10 +4942,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>316</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -4176,30 +4953,30 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>167</v>
+        <v>295</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>168</v>
+        <v>296</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>169</v>
+        <v>297</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>192</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>170</v>
+        <v>298</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>171</v>
+        <v>299</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -4221,16 +4998,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json/test.xlsx
+++ b/excel2json/test.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="22365" windowHeight="9300"/>
   </bookViews>
   <sheets>
-    <sheet name="#语言包" sheetId="1" r:id="rId1"/>
-    <sheet name="多key测试" sheetId="2" r:id="rId2"/>
+    <sheet name="语言包" sheetId="1" r:id="rId1"/>
+    <sheet name="#多key测试" sheetId="2" r:id="rId2"/>
     <sheet name="#多key测试2" sheetId="3" r:id="rId3"/>
     <sheet name="#参数表" sheetId="5" r:id="rId4"/>
     <sheet name="#以#开头的表示不导出" sheetId="4" r:id="rId5"/>
@@ -71,886 +71,886 @@
     <t>object</t>
   </si>
   <si>
+    <t>CS</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
+    <t>确定</t>
+  </si>
+  <si>
+    <t>[1,2.23,0,100.789,0,1,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,13,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>["你好","中国","china"]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,14,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>激活</t>
+  </si>
+  <si>
+    <t>[1,2,[11,24],'future',['abc','name','世界之大']]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,15,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>未激活</t>
+  </si>
+  <si>
+    <t>["海阔天空","鱼跃鸟飞","提升自我"]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,16,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>已激活</t>
+  </si>
+  <si>
+    <t>["Everything is Ok","Nothing is impossible"]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,17,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>可激活</t>
+  </si>
+  <si>
+    <t>[1,2,[11,27]]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,18,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>已领取</t>
+  </si>
+  <si>
+    <t>[1,2,[11,28]]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,19,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>领取</t>
+  </si>
+  <si>
+    <t>[1,2,[11,29]]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,20,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>充值任意金额即可领取</t>
+  </si>
+  <si>
+    <t>[1,2,[11,30]]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,21,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>第%s天激活任务</t>
+  </si>
+  <si>
+    <t>[1,2,[11,31]]</t>
+  </si>
+  <si>
+    <t>{"name":"jim","age":22,"work":[12,22,"ted","walk"]}</t>
+  </si>
+  <si>
+    <t>LangConfig2.lua</t>
+  </si>
+  <si>
+    <t>LangConfig2.json</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>ary</t>
+  </si>
+  <si>
+    <t>obj</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>key=1,type=1</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123654,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=2</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,7]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123655,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=3</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,8]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123656,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=4</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,9]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123657,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=5</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,10]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123658,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=6</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,11]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123659,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=7</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,12]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123660,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=8</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,13]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123661,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=9</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,14]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123662,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=10</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,15]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123663,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=11</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,16]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123664,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=12</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,17]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123665,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=13</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,18]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123666,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=14</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,19]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123667,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=15</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,20]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123668,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=16</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,21]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123669,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=17</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,22]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123670,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=18</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,23]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123671,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=19</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,24]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123672,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=20</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,25]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123673,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=21</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,26]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123674,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=22</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,27]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123675,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=23</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,28]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123676,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=24</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,29]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123677,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=25</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,30]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123678,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=26</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,31]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123679,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=1,type=27</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,32]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123680,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=1</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,33]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123681,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=2</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,34]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123682,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=3</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,35]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123683,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=4</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,36]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123684,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=5</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,37]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123685,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=6</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,38]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123686,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=7</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,39]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123687,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=8</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,40]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123688,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=9</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,41]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123689,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=10</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,42]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123690,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=11</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,43]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123691,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=12</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,44]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123692,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=13</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,45]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123693,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=14</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,46]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123694,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=15</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,47]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123695,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=16</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,48]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123696,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=17</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,49]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123697,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=18</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,50]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123698,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=19</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,51]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123699,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=20</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,52]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123700,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=21</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,53]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123701,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=22</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,54]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123702,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=23</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,55]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123703,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=24</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,56]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123704,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=25</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,57]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123705,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=26</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,58]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123706,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=2,type=27</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,59]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123707,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=1</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,60]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123708,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=2</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,61]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123709,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=3</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,62]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123710,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=4</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,63]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123711,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=5</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,64]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123712,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=6</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,65]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123713,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=7</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,66]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123714,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=8</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,67]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123715,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>key=3,type=9</t>
+  </si>
+  <si>
+    <t>[0,1,2,3,4,5,68]</t>
+  </si>
+  <si>
+    <t>{"name":"root","password":123716,"city":"gd"}</t>
+  </si>
+  <si>
+    <t>LangConfig3.lua</t>
+  </si>
+  <si>
+    <t>LangConfig3.json</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>key4</t>
+  </si>
+  <si>
+    <t>key5</t>
+  </si>
+  <si>
+    <t>type3</t>
+  </si>
+  <si>
+    <t>type4</t>
+  </si>
+  <si>
+    <t>type5</t>
+  </si>
+  <si>
+    <t>xxxx1111</t>
+  </si>
+  <si>
+    <t>xxxx1112</t>
+  </si>
+  <si>
+    <t>xxxx1113</t>
+  </si>
+  <si>
+    <t>xxxx1114</t>
+  </si>
+  <si>
+    <t>xxxx1115</t>
+  </si>
+  <si>
+    <t>xxxx1116</t>
+  </si>
+  <si>
+    <t>xxxx1117</t>
+  </si>
+  <si>
+    <t>xxxx1118</t>
+  </si>
+  <si>
+    <t>xxxx1119</t>
+  </si>
+  <si>
+    <t>xxxx1120</t>
+  </si>
+  <si>
+    <t>xxxx1121</t>
+  </si>
+  <si>
+    <t>xxxx1122</t>
+  </si>
+  <si>
+    <t>yyyy2221</t>
+  </si>
+  <si>
+    <t>yyyy2222</t>
+  </si>
+  <si>
+    <t>yyyy2223</t>
+  </si>
+  <si>
+    <t>yyyy2224</t>
+  </si>
+  <si>
+    <t>yyyy2225</t>
+  </si>
+  <si>
+    <t>yyyy2226</t>
+  </si>
+  <si>
+    <t>yyyy2227</t>
+  </si>
+  <si>
+    <t>yyyy2228</t>
+  </si>
+  <si>
+    <t>yyyy2229</t>
+  </si>
+  <si>
+    <t>yyyy2230</t>
+  </si>
+  <si>
+    <t>yyyy2231</t>
+  </si>
+  <si>
+    <t>yyyy2232</t>
+  </si>
+  <si>
+    <t>yyyy2233</t>
+  </si>
+  <si>
+    <t>yyyy2234</t>
+  </si>
+  <si>
+    <t>yyyy2235</t>
+  </si>
+  <si>
+    <t>yyyy2236</t>
+  </si>
+  <si>
+    <t>yyyy2237</t>
+  </si>
+  <si>
+    <t>yyyy2238</t>
+  </si>
+  <si>
+    <t>yyyy2239</t>
+  </si>
+  <si>
+    <t>yyyy2240</t>
+  </si>
+  <si>
+    <t>yyyy2241</t>
+  </si>
+  <si>
+    <t>yyyy2242</t>
+  </si>
+  <si>
+    <t>yyyy2243</t>
+  </si>
+  <si>
+    <t>yyyy2244</t>
+  </si>
+  <si>
+    <t>ParamConfig.lua</t>
+  </si>
+  <si>
+    <t>ParamConfig.json</t>
+  </si>
+  <si>
+    <t>特殊格式（1表示竖状）</t>
+  </si>
+  <si>
+    <t>参数名</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>导出格式</t>
+  </si>
+  <si>
+    <t>数据</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>outputType</t>
+  </si>
+  <si>
+    <t>open_time</t>
+  </si>
+  <si>
+    <t>2021_12_10</t>
+  </si>
+  <si>
+    <t>maxLevel</t>
+  </si>
+  <si>
+    <t>open_condition</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>strArr</t>
+  </si>
+  <si>
+    <t>这两行的格式只能如此，不可随意插入列或行</t>
+  </si>
+  <si>
+    <t>值</t>
+  </si>
+  <si>
+    <t>要多少列数据就配置多少列</t>
+  </si>
+  <si>
+    <t>这几行后面不能有非导出数据</t>
+  </si>
+  <si>
     <t>SC</t>
-  </si>
-  <si>
-    <t>确定</t>
-  </si>
-  <si>
-    <t>[1,2.23,0,100.789,0,1,[11,22],[33,44,55,66,77],8,9,,10,11,132]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,13,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>取消</t>
-  </si>
-  <si>
-    <t>["你好","中国","china"]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,14,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>激活</t>
-  </si>
-  <si>
-    <t>[1,2,[11,24],'future',['abc','name','世界之大']]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,15,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>未激活</t>
-  </si>
-  <si>
-    <t>["海阔天空","鱼跃鸟飞","提升自我"]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,16,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>已激活</t>
-  </si>
-  <si>
-    <t>["Everything is Ok","Nothing is impossible"]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,17,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>可激活</t>
-  </si>
-  <si>
-    <t>[1,2,[11,27]]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,18,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>已领取</t>
-  </si>
-  <si>
-    <t>[1,2,[11,28]]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,19,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>领取</t>
-  </si>
-  <si>
-    <t>[1,2,[11,29]]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,20,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>充值任意金额即可领取</t>
-  </si>
-  <si>
-    <t>[1,2,[11,30]]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,21,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>第%s天激活任务</t>
-  </si>
-  <si>
-    <t>[1,2,[11,31]]</t>
-  </si>
-  <si>
-    <t>{"name":"jim","age":22,"work":[12,22,"ted","walk"]}</t>
-  </si>
-  <si>
-    <t>LangConfig2.lua</t>
-  </si>
-  <si>
-    <t>LangConfig2.json</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
-    <t>key2</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>ary</t>
-  </si>
-  <si>
-    <t>obj</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>key=1,type=1</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,6]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123654,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=2</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,7]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123655,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=3</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,8]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123656,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=4</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,9]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123657,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=5</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,10]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123658,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=6</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,11]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123659,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=7</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,12]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123660,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=8</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,13]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123661,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=9</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,14]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123662,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=10</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,15]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123663,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=11</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,16]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123664,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=12</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,17]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123665,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=13</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,18]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123666,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=14</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,19]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123667,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=15</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,20]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123668,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=16</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,21]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123669,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=17</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,22]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123670,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=18</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,23]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123671,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=19</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,24]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123672,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=20</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,25]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123673,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=21</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,26]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123674,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=22</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,27]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123675,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=23</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,28]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123676,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=24</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,29]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123677,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=25</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,30]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123678,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=26</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,31]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123679,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=1,type=27</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,32]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123680,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=1</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,33]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123681,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=2</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,34]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123682,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=3</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,35]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123683,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=4</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,36]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123684,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=5</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,37]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123685,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=6</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,38]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123686,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=7</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,39]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123687,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=8</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,40]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123688,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=9</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,41]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123689,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=10</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,42]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123690,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=11</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,43]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123691,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=12</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,44]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123692,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=13</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,45]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123693,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=14</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,46]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123694,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=15</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,47]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123695,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=16</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,48]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123696,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=17</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,49]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123697,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=18</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,50]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123698,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=19</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,51]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123699,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=20</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,52]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123700,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=21</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,53]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123701,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=22</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,54]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123702,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=23</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,55]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123703,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=24</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,56]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123704,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=25</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,57]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123705,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=26</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,58]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123706,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=2,type=27</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,59]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123707,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=1</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,60]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123708,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=2</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,61]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123709,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=3</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,62]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123710,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=4</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,63]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123711,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=5</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,64]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123712,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=6</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,65]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123713,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=7</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,66]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123714,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=8</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,67]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123715,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>key=3,type=9</t>
-  </si>
-  <si>
-    <t>[0,1,2,3,4,5,68]</t>
-  </si>
-  <si>
-    <t>{"name":"root","password":123716,"city":"gd"}</t>
-  </si>
-  <si>
-    <t>LangConfig3.lua</t>
-  </si>
-  <si>
-    <t>LangConfig3.json</t>
-  </si>
-  <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <t>key4</t>
-  </si>
-  <si>
-    <t>key5</t>
-  </si>
-  <si>
-    <t>type3</t>
-  </si>
-  <si>
-    <t>type4</t>
-  </si>
-  <si>
-    <t>type5</t>
-  </si>
-  <si>
-    <t>xxxx1111</t>
-  </si>
-  <si>
-    <t>xxxx1112</t>
-  </si>
-  <si>
-    <t>xxxx1113</t>
-  </si>
-  <si>
-    <t>xxxx1114</t>
-  </si>
-  <si>
-    <t>xxxx1115</t>
-  </si>
-  <si>
-    <t>xxxx1116</t>
-  </si>
-  <si>
-    <t>xxxx1117</t>
-  </si>
-  <si>
-    <t>xxxx1118</t>
-  </si>
-  <si>
-    <t>xxxx1119</t>
-  </si>
-  <si>
-    <t>xxxx1120</t>
-  </si>
-  <si>
-    <t>xxxx1121</t>
-  </si>
-  <si>
-    <t>xxxx1122</t>
-  </si>
-  <si>
-    <t>yyyy2221</t>
-  </si>
-  <si>
-    <t>yyyy2222</t>
-  </si>
-  <si>
-    <t>yyyy2223</t>
-  </si>
-  <si>
-    <t>yyyy2224</t>
-  </si>
-  <si>
-    <t>yyyy2225</t>
-  </si>
-  <si>
-    <t>yyyy2226</t>
-  </si>
-  <si>
-    <t>yyyy2227</t>
-  </si>
-  <si>
-    <t>yyyy2228</t>
-  </si>
-  <si>
-    <t>yyyy2229</t>
-  </si>
-  <si>
-    <t>yyyy2230</t>
-  </si>
-  <si>
-    <t>yyyy2231</t>
-  </si>
-  <si>
-    <t>yyyy2232</t>
-  </si>
-  <si>
-    <t>yyyy2233</t>
-  </si>
-  <si>
-    <t>yyyy2234</t>
-  </si>
-  <si>
-    <t>yyyy2235</t>
-  </si>
-  <si>
-    <t>yyyy2236</t>
-  </si>
-  <si>
-    <t>yyyy2237</t>
-  </si>
-  <si>
-    <t>yyyy2238</t>
-  </si>
-  <si>
-    <t>yyyy2239</t>
-  </si>
-  <si>
-    <t>yyyy2240</t>
-  </si>
-  <si>
-    <t>yyyy2241</t>
-  </si>
-  <si>
-    <t>yyyy2242</t>
-  </si>
-  <si>
-    <t>yyyy2243</t>
-  </si>
-  <si>
-    <t>yyyy2244</t>
-  </si>
-  <si>
-    <t>ParamConfig.lua</t>
-  </si>
-  <si>
-    <t>ParamConfig.json</t>
-  </si>
-  <si>
-    <t>特殊格式（1表示竖状）</t>
-  </si>
-  <si>
-    <t>参数名</t>
-  </si>
-  <si>
-    <t>数据类型</t>
-  </si>
-  <si>
-    <t>导出格式</t>
-  </si>
-  <si>
-    <t>数据</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>outputType</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>open_time</t>
-  </si>
-  <si>
-    <t>2021_12_10</t>
-  </si>
-  <si>
-    <t>maxLevel</t>
-  </si>
-  <si>
-    <t>open_condition</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>strArr</t>
-  </si>
-  <si>
-    <t>这两行的格式只能如此，不可随意插入列或行</t>
-  </si>
-  <si>
-    <t>值</t>
-  </si>
-  <si>
-    <t>要多少列数据就配置多少列</t>
-  </si>
-  <si>
-    <t>这几行后面不能有非导出数据</t>
   </si>
   <si>
     <t>你好xxx</t>
@@ -979,10 +979,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -994,22 +994,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,31 +1007,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1062,39 +1039,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1115,10 +1069,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1130,8 +1084,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,7 +1158,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,121 +1284,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,49 +1326,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,21 +1368,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1393,30 +1378,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,8 +1400,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,7 +1410,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1472,10 +1472,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1484,133 +1484,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2036,8 +2036,8 @@
   <sheetPr/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
@@ -2290,8 +2290,8 @@
   <sheetPr/>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2381,19 +2381,19 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3581,22 +3581,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4572,7 +4572,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4658,41 +4658,41 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5">
         <v>999</v>
@@ -4700,13 +4700,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>59</v>
@@ -4714,13 +4714,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>60</v>
@@ -4728,13 +4728,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
@@ -4748,7 +4748,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -4793,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4817,7 +4817,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
@@ -4826,10 +4826,10 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4846,10 +4846,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4866,30 +4866,30 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4998,16 +4998,16 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
